--- a/Results/Simulated_fluxes/Ex_fluxes_glc_min.xlsx
+++ b/Results/Simulated_fluxes/Ex_fluxes_glc_min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:KO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,227 +441,1502 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>12ppd__R_e</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>12ppd__S_e</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>13BDglcn_e</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2doxg6p_e</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2hxmp_e</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2obut_e</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2pg_e</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>35ccmp_e</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>35cgmp_e</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>3aap_c</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>3pg_e</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>3sala_e</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>4abut_e</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>4abz_e</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>4hbz_e</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>4oglu_c</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>5adtststeroneglc_e</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>5aop_e</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>5dglcn_e</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>5flura_e</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>6mpur_e</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>6pgc_e</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>8aonn_m</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Lcyst_e</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>T4hcinnm_e</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>aacald_c</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>abt__D_e</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>abt_e</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ac_e</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>acac_e</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>acgam_e</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>acglu_e</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ach_e</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ad_e</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ade_e</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>adn_e</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>agm_e</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ahandrostanglc_e</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>akg_e</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>ala_B_e</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>ala__D_e</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>ala__L_e</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>alltn_e</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>alltt_e</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>amet_e</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>amob_m</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>amp_e</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>andrstrnglc_e</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>arab__D_e</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>arab__L_e</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>arach_e</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>arbt_e</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>arg__L_e</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>asn__L_e</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>asp__D_e</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>asp__L_e</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>bcaro_d</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>bhb_e</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>bildglcur_e</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>bilglcur_e</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>btd_RR_e</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>btn_e</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>but_e</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>bz_e</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>ca2_e</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>camp_e</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>cbp_e</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>cellb_e</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>cgly_e</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>chol_e</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>cholate_e</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>cholp_e</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>chtn_e</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>cit_e</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>citr__L_e</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>cl_e</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>cmp_e</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>co2_e</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>csn_e</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>cu2_e</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>cu_e</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>cys__L_e</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>cysi__L_e</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>cyst__L_e</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>cytd_e</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>dad_2_e</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>dad_5_m</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>dca_e</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>ddca_e</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>dha_e</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>dhdascb_e</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>din_e</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>drib_e</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>dtmp_e</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>epist_e</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>epistest_RT_d</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>ergst_e</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>ergstest_RT_d</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>estradiolglc_e</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>estriolglc_e</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>estroneglc_e</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>etha_e</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>ethamp_e</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>f6p_e</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>fe2_e</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>fe3_e</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>fecost_e</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>fecostest_RT_d</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>fer_e</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>fmn_e</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>fol_e</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>for_e</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>frmd_e</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>fru_e</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>fum_e</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>g1p_e</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>g3pc_e</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>g3pe_e</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>g3pi_e</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>g6p_e</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>gal_e</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>galt_e</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>galur_e</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>gam6p_e</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>gam_e</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>gchola_e</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>ghb_e</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>glc__D_e</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>glcn_e</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>gln__L_e</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>glu__L_e</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>gluala_e</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>glx_e</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>gly_e</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>glyc2p_e</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>glyc3p_e</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>glyc__R_e</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>glyc_e</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>glyclt_e</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>glycogen_e</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>glygn2_e</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>glygn4_e</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>gmp_e</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>gsn_e</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>gthrd_e</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>gua_e</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>h2o2_e</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>h2o_e</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>h_e</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>hco3_e</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>hdca_e</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>hdcea_e</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>his__L_e</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>hista_e</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>hom__L_e</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>hqn_e</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>hxa_e</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>hyptaur_e</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>ile__L_e</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>ind3eth_e</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>inost_e</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>ins_e</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>k_e</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>lac__D_e</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>lac__L_e</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>lanost_e</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>lanostest_RT_d</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>leu__L_e</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>lipoate_m</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>lys__L_e</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>lyx__L_e</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>mal__L_e</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>malt_e</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>malttr_e</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>man1p_e</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>man6p_e</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>man_e</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>mannan_e</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>mbdg_e</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>melib_e</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>meoh_e</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>met__L_e</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>metsox_R__L_e</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>metsox_S__L_e</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>mg2_e</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>minohp_e</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>mma_e</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>mn2_e</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>na1_e</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>nac_e</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>nh4_e</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>no2_e</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>no3_e</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>nrvnc_e</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>o2_e</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>ocdca_e</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>ocdcea_e</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>ocdcya_e</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>oh1_e</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>orn_e</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>oxa_e</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>pail1819Z160_e</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>pc_RT_e</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>pe1801819Z_e</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>pe1801829Z12Z_e</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>pe1819Z1819Z_e</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>pe1819Z1829Z12Z_e</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>pe_RT_e</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>peamn_e</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>pectin_e</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>pep_e</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>pepd_e</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>pg1819Z160_e</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>pgp1819Z160_e</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>phe__L_e</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>pi_e</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>pnto__R_e</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>ppa_e</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>ppi_e</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>pppi_e</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>pro__D_e</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>pro__L_e</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>prostge1_e</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>prostge2_e</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>pser__L_e</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>ptd1ino_RT_e</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>ptrc_e</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>pydxn_e</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>pyr_e</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>quin_e</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>rbl__D_e</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>rbt_e</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>rib__D_e</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>ribflv_e</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>salcn_e</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>sbt__D_e</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>ser__D_e</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>ser__L_e</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>so3_e</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>so4_e</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>spmd_e</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>sprm_e</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>srb__L_e</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>strch1_e</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>strch2_e</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>succ_e</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>sucr_e</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>taur_e</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>tchola_e</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>tega_e</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>tgua_e</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>thm_e</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>thmmp_e</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>thmpp_e</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>thr__L_e</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>thym_e</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>thymd_e</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>tre_e</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>triglyc_RT_d</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>trnaala_c</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>trnaarg_c</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>trnaasn_c</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>trnaasp_c</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>trnacys_c</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>trnagln_c</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>trnaglu_c</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>trnagly_c</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>trnahis_c</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>trnaile_c</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>trnaleu_c</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>trnalys_c</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>trnamet_c</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>trnaphe_c</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>trnapro_c</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>trnaser_c</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>trnathr_c</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>trnatrp_c</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>trnatyr_c</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>trnaval_c</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>trp__L_e</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>tststeroneglc_e</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>tsul_e</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>ttc_e</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>ttdca_e</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>tym_e</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>tyr__L_e</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>ump_e</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>ura_e</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>urate_e</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>urea_e</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>uri_e</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>val__L_e</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>xan_e</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>xtsn_e</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>xyl__D_e</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>xylt_e</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>xylu__D_e</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>zn2_e</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>zymst_e</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>zymstest_RT_d</t>
         </is>
       </c>
     </row>
@@ -670,139 +1945,904 @@
         <v>0.05</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.03541300000001564</v>
       </c>
-      <c r="C2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6.965e-05</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.0001209</v>
       </c>
-      <c r="E2" t="n">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>0.0001209</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
         <v>4.16e-05</v>
       </c>
-      <c r="G2" t="n">
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
         <v>1.803279819999933</v>
       </c>
-      <c r="H2" t="n">
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
         <v>2.625e-05</v>
       </c>
-      <c r="I2" t="n">
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
         <v>0.0001209</v>
       </c>
-      <c r="J2" t="n">
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.0002142</v>
       </c>
-      <c r="K2" t="n">
+      <c r="DC2" t="n">
         <v>0.00030845</v>
       </c>
-      <c r="L2" t="n">
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="n">
         <v>0.6912242575000154</v>
       </c>
-      <c r="M2" t="n">
+      <c r="DZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="n">
         <v>2.935245720000078</v>
       </c>
-      <c r="N2" t="n">
+      <c r="ET2" t="n">
         <v>0.114390975000042</v>
       </c>
-      <c r="O2" t="n">
+      <c r="EU2" t="n">
         <v>0.001252974999999999</v>
       </c>
-      <c r="P2" t="n">
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH2" t="n">
         <v>0.02928515</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="FI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
         <v>0.00015535</v>
       </c>
-      <c r="R2" t="n">
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
         <v>0.0030858</v>
       </c>
-      <c r="S2" t="n">
+      <c r="GE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG2" t="n">
         <v>3.035e-05</v>
       </c>
-      <c r="T2" t="n">
+      <c r="GH2" t="n">
         <v>0.00130495</v>
       </c>
-      <c r="U2" t="n">
+      <c r="GI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" t="n">
         <v>0.3300147000000552</v>
       </c>
-      <c r="V2" t="n">
+      <c r="GK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN2" t="n">
         <v>1.617111594999946</v>
       </c>
-      <c r="W2" t="n">
+      <c r="GO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI2" t="n">
         <v>0.01331075000002437</v>
       </c>
-      <c r="X2" t="n">
+      <c r="HJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG2" t="n">
         <v>0.005011899999999996</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="IH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA2" t="n">
         <v>0.0288787</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="JB2" t="n">
         <v>0.00733375</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="JC2" t="n">
         <v>0.005398500000000001</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="JD2" t="n">
         <v>0.0098648</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="JE2" t="n">
         <v>0.00171345</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="JF2" t="n">
         <v>0.005894900000000001</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="JG2" t="n">
         <v>0.01043365</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="JH2" t="n">
         <v>0.025661</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="JI2" t="n">
         <v>0.00305835</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="JJ2" t="n">
         <v>0.00792845</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="JK2" t="n">
         <v>0.01601025</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="JL2" t="n">
         <v>0.0086167</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="JM2" t="n">
         <v>0.0028525</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="JN2" t="n">
         <v>0.004758200000000001</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="JO2" t="n">
         <v>0.01179485</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="JP2" t="n">
         <v>0.0168435</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="JQ2" t="n">
         <v>0.0109065</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="JR2" t="n">
         <v>0.00116595</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="JS2" t="n">
         <v>0.00311815</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="JT2" t="n">
         <v>0.0137584</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="JU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2.55e-05</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="KN2" t="n">
         <v>0.006747250000000002</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -810,139 +2850,904 @@
         <v>0.1</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.0708260000000047</v>
       </c>
-      <c r="C3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.0001393</v>
       </c>
-      <c r="D3" t="n">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.0002418</v>
       </c>
-      <c r="E3" t="n">
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
         <v>0.0002418</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
         <v>8.32e-05</v>
       </c>
-      <c r="G3" t="n">
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
         <v>3.423803730609113</v>
       </c>
-      <c r="H3" t="n">
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
         <v>5.25e-05</v>
       </c>
-      <c r="I3" t="n">
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>0.0002418</v>
       </c>
-      <c r="J3" t="n">
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>0.0004284</v>
       </c>
-      <c r="K3" t="n">
+      <c r="DC3" t="n">
         <v>0.0006169</v>
       </c>
-      <c r="L3" t="n">
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
         <v>1.351989196768194</v>
       </c>
-      <c r="M3" t="n">
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
         <v>5.687735530609157</v>
       </c>
-      <c r="N3" t="n">
+      <c r="ET3" t="n">
         <v>0.2287819499999975</v>
       </c>
-      <c r="O3" t="n">
+      <c r="EU3" t="n">
         <v>0.002505949999999996</v>
       </c>
-      <c r="P3" t="n">
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
         <v>0.0585703</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
         <v>0.0003107</v>
       </c>
-      <c r="R3" t="n">
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
         <v>0.0061716</v>
       </c>
-      <c r="S3" t="n">
+      <c r="GE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
         <v>6.07e-05</v>
       </c>
-      <c r="T3" t="n">
+      <c r="GH3" t="n">
         <v>0.0026099</v>
       </c>
-      <c r="U3" t="n">
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
         <v>0.6600294000000165</v>
       </c>
-      <c r="V3" t="n">
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
         <v>3.051467280609117</v>
       </c>
-      <c r="W3" t="n">
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
         <v>0.0266215000000101</v>
       </c>
-      <c r="X3" t="n">
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0.01002379999999999</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA3" t="n">
         <v>0.05775740000000001</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="JB3" t="n">
         <v>0.0146675</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="JC3" t="n">
         <v>0.010797</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="JD3" t="n">
         <v>0.0197296</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="JE3" t="n">
         <v>0.0034269</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="JF3" t="n">
         <v>0.0117898</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="JG3" t="n">
         <v>0.0208673</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="JH3" t="n">
         <v>0.05132200000000001</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="JI3" t="n">
         <v>0.0061167</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="JJ3" t="n">
         <v>0.0158569</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="JK3" t="n">
         <v>0.0320205</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="JL3" t="n">
         <v>0.0172334</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="JM3" t="n">
         <v>0.005705</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="JN3" t="n">
         <v>0.009516400000000001</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="JO3" t="n">
         <v>0.0235897</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="JP3" t="n">
         <v>0.033687</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="JQ3" t="n">
         <v>0.021813</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="JR3" t="n">
         <v>0.0023319</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="JS3" t="n">
         <v>0.0062363</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="JT3" t="n">
         <v>0.0275168</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="JU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM3" t="n">
         <v>5.100000000000001e-05</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="KN3" t="n">
         <v>0.0134945</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -950,139 +3755,904 @@
         <v>0.15</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.1062390000000041</v>
       </c>
-      <c r="C4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.00020895</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.0003627</v>
       </c>
-      <c r="E4" t="n">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
         <v>0.0003627</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
         <v>0.0001248</v>
       </c>
-      <c r="G4" t="n">
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
         <v>5.044459058517756</v>
       </c>
-      <c r="H4" t="n">
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
         <v>7.874999999999999e-05</v>
       </c>
-      <c r="I4" t="n">
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
         <v>0.0003627</v>
       </c>
-      <c r="J4" t="n">
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
         <v>0.0006425999999999999</v>
       </c>
-      <c r="K4" t="n">
+      <c r="DC4" t="n">
         <v>0.0009253499999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="n">
         <v>2.012776038919633</v>
       </c>
-      <c r="M4" t="n">
+      <c r="DZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES4" t="n">
         <v>8.440356758517773</v>
       </c>
-      <c r="N4" t="n">
+      <c r="ET4" t="n">
         <v>0.3431729250000125</v>
       </c>
-      <c r="O4" t="n">
+      <c r="EU4" t="n">
         <v>0.00375892500000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="EV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
         <v>0.08785544999999999</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="FI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="n">
         <v>0.00046605</v>
       </c>
-      <c r="R4" t="n">
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
         <v>0.009257399999999999</v>
       </c>
-      <c r="S4" t="n">
+      <c r="GE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG4" t="n">
         <v>9.105e-05</v>
       </c>
-      <c r="T4" t="n">
+      <c r="GH4" t="n">
         <v>0.00391485</v>
       </c>
-      <c r="U4" t="n">
+      <c r="GI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ4" t="n">
         <v>0.9900441000000147</v>
       </c>
-      <c r="V4" t="n">
+      <c r="GK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN4" t="n">
         <v>4.485954383517757</v>
       </c>
-      <c r="W4" t="n">
+      <c r="GO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI4" t="n">
         <v>0.03993225000000715</v>
       </c>
-      <c r="X4" t="n">
+      <c r="HJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" t="n">
         <v>0.01503570000000004</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
         <v>0.08663610000000001</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="JB4" t="n">
         <v>0.02200125</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="JC4" t="n">
         <v>0.0161955</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="JD4" t="n">
         <v>0.0295944</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="JE4" t="n">
         <v>0.00514035</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="JF4" t="n">
         <v>0.0176847</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="JG4" t="n">
         <v>0.03130095</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="JH4" t="n">
         <v>0.076983</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="JI4" t="n">
         <v>0.009175049999999999</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="JJ4" t="n">
         <v>0.02378535</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="JK4" t="n">
         <v>0.04803075</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="JL4" t="n">
         <v>0.0258501</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="JM4" t="n">
         <v>0.008557499999999999</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="JN4" t="n">
         <v>0.0142746</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="JO4" t="n">
         <v>0.03538455</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="JP4" t="n">
         <v>0.0505305</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="JQ4" t="n">
         <v>0.0327195</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="JR4" t="n">
         <v>0.00349785</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="JS4" t="n">
         <v>0.00935445</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="JT4" t="n">
         <v>0.0412752</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="JU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" t="n">
         <v>7.65e-05</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="KN4" t="n">
         <v>0.02024175</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1090,139 +4660,904 @@
         <v>0.2</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.1416520000000045</v>
       </c>
-      <c r="C5" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.0002786</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.0004836</v>
       </c>
-      <c r="E5" t="n">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
         <v>0.0004836</v>
       </c>
-      <c r="F5" t="n">
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
         <v>0.0001664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
         <v>6.66511438642709</v>
       </c>
-      <c r="H5" t="n">
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
         <v>0.000105</v>
       </c>
-      <c r="I5" t="n">
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
         <v>0.0004836</v>
       </c>
-      <c r="J5" t="n">
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
         <v>0.0008568</v>
       </c>
-      <c r="K5" t="n">
+      <c r="DC5" t="n">
         <v>0.0012338</v>
       </c>
-      <c r="L5" t="n">
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
         <v>2.673562881071189</v>
       </c>
-      <c r="M5" t="n">
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
         <v>11.19297798642715</v>
       </c>
-      <c r="N5" t="n">
+      <c r="ET5" t="n">
         <v>0.4575638999999724</v>
       </c>
-      <c r="O5" t="n">
+      <c r="EU5" t="n">
         <v>0.005011899999999993</v>
       </c>
-      <c r="P5" t="n">
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
         <v>0.1171406</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
         <v>0.0006214</v>
       </c>
-      <c r="R5" t="n">
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" t="n">
         <v>0.0123432</v>
       </c>
-      <c r="S5" t="n">
+      <c r="GE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" t="n">
         <v>0.0001214</v>
       </c>
-      <c r="T5" t="n">
+      <c r="GH5" t="n">
         <v>0.0052198</v>
       </c>
-      <c r="U5" t="n">
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
         <v>1.320058800000016</v>
       </c>
-      <c r="V5" t="n">
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" t="n">
         <v>5.920441486427094</v>
       </c>
-      <c r="W5" t="n">
+      <c r="GO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI5" t="n">
         <v>0.05324300000000864</v>
       </c>
-      <c r="X5" t="n">
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG5" t="n">
         <v>0.02004759999999997</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" t="n">
         <v>0.1155148</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="JB5" t="n">
         <v>0.029335</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="JC5" t="n">
         <v>0.021594</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="JD5" t="n">
         <v>0.0394592</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="JE5" t="n">
         <v>0.0068538</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="JF5" t="n">
         <v>0.0235796</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="JG5" t="n">
         <v>0.0417346</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="JH5" t="n">
         <v>0.102644</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="JI5" t="n">
         <v>0.0122334</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="JJ5" t="n">
         <v>0.0317138</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="JK5" t="n">
         <v>0.064041</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="JL5" t="n">
         <v>0.0344668</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="JM5" t="n">
         <v>0.01141</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="JN5" t="n">
         <v>0.0190328</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="JO5" t="n">
         <v>0.0471794</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="JP5" t="n">
         <v>0.067374</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="JQ5" t="n">
         <v>0.043626</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="JR5" t="n">
         <v>0.0046638</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="JS5" t="n">
         <v>0.0124726</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="JT5" t="n">
         <v>0.05503360000000001</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="JU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" t="n">
         <v>0.000102</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="KN5" t="n">
         <v>0.02698900000000001</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1230,139 +5565,904 @@
         <v>0.25</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.1770650000000019</v>
       </c>
-      <c r="C6" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.00034825</v>
       </c>
-      <c r="D6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.0006045</v>
       </c>
-      <c r="E6" t="n">
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
         <v>0.0006045</v>
       </c>
-      <c r="F6" t="n">
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>0.000208</v>
       </c>
-      <c r="G6" t="n">
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
         <v>8.285769714335059</v>
       </c>
-      <c r="H6" t="n">
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
         <v>0.00013125</v>
       </c>
-      <c r="I6" t="n">
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
         <v>0.0006045</v>
       </c>
-      <c r="J6" t="n">
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.001071</v>
       </c>
-      <c r="K6" t="n">
+      <c r="DC6" t="n">
         <v>0.00154225</v>
       </c>
-      <c r="L6" t="n">
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="n">
         <v>3.334349723222514</v>
       </c>
-      <c r="M6" t="n">
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
         <v>13.94559921433514</v>
       </c>
-      <c r="N6" t="n">
+      <c r="ET6" t="n">
         <v>0.5719548749999631</v>
       </c>
-      <c r="O6" t="n">
+      <c r="EU6" t="n">
         <v>0.006264875000000045</v>
       </c>
-      <c r="P6" t="n">
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
         <v>0.14642575</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
         <v>0.00077675</v>
       </c>
-      <c r="R6" t="n">
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD6" t="n">
         <v>0.015429</v>
       </c>
-      <c r="S6" t="n">
+      <c r="GE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG6" t="n">
         <v>0.00015175</v>
       </c>
-      <c r="T6" t="n">
+      <c r="GH6" t="n">
         <v>0.00652475</v>
       </c>
-      <c r="U6" t="n">
+      <c r="GI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ6" t="n">
         <v>1.650073500000007</v>
       </c>
-      <c r="V6" t="n">
+      <c r="GK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN6" t="n">
         <v>7.354928589335062</v>
       </c>
-      <c r="W6" t="n">
+      <c r="GO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI6" t="n">
         <v>0.06655375000001724</v>
       </c>
-      <c r="X6" t="n">
+      <c r="HJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG6" t="n">
         <v>0.02505950000000018</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="IH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="II6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" t="n">
         <v>0.1443935</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="JB6" t="n">
         <v>0.03666875</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="JC6" t="n">
         <v>0.0269925</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="JD6" t="n">
         <v>0.049324</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="JE6" t="n">
         <v>0.00856725</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="JF6" t="n">
         <v>0.0294745</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="JG6" t="n">
         <v>0.05216825</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="JH6" t="n">
         <v>0.128305</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="JI6" t="n">
         <v>0.01529175</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="JJ6" t="n">
         <v>0.03964225</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="JK6" t="n">
         <v>0.08005125</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="JL6" t="n">
         <v>0.0430835</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="JM6" t="n">
         <v>0.0142625</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="JN6" t="n">
         <v>0.023791</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="JO6" t="n">
         <v>0.05897425</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="JP6" t="n">
         <v>0.0842175</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="JQ6" t="n">
         <v>0.0545325</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="JR6" t="n">
         <v>0.00582975</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="JS6" t="n">
         <v>0.01559075</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="JT6" t="n">
         <v>0.06879200000000001</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="JU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM6" t="n">
         <v>0.0001275</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="KN6" t="n">
         <v>0.03373625</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1370,139 +6470,904 @@
         <v>0.3</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.2124779999999858</v>
       </c>
-      <c r="C7" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.0004179</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.0007254</v>
       </c>
-      <c r="E7" t="n">
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
         <v>0.0007254</v>
       </c>
-      <c r="F7" t="n">
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
         <v>0.0002496</v>
       </c>
-      <c r="G7" t="n">
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
         <v>9.906425042243146</v>
       </c>
-      <c r="H7" t="n">
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
         <v>0.0001575</v>
       </c>
-      <c r="I7" t="n">
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>0.0007254</v>
       </c>
-      <c r="J7" t="n">
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
         <v>0.0012852</v>
       </c>
-      <c r="K7" t="n">
+      <c r="DC7" t="n">
         <v>0.0018507</v>
       </c>
-      <c r="L7" t="n">
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
         <v>3.995136565373836</v>
       </c>
-      <c r="M7" t="n">
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
         <v>16.698220442243</v>
       </c>
-      <c r="N7" t="n">
+      <c r="ET7" t="n">
         <v>0.6863458499999854</v>
       </c>
-      <c r="O7" t="n">
+      <c r="EU7" t="n">
         <v>0.007517849999999965</v>
       </c>
-      <c r="P7" t="n">
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
         <v>0.1757109</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
         <v>0.0009320999999999999</v>
       </c>
-      <c r="R7" t="n">
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
         <v>0.0185148</v>
       </c>
-      <c r="S7" t="n">
+      <c r="GE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
         <v>0.0001821</v>
       </c>
-      <c r="T7" t="n">
+      <c r="GH7" t="n">
         <v>0.0078297</v>
       </c>
-      <c r="U7" t="n">
+      <c r="GI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ7" t="n">
         <v>1.980088199999951</v>
       </c>
-      <c r="V7" t="n">
+      <c r="GK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN7" t="n">
         <v>8.789415692243134</v>
       </c>
-      <c r="W7" t="n">
+      <c r="GO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI7" t="n">
         <v>0.07986449999997167</v>
       </c>
-      <c r="X7" t="n">
+      <c r="HJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG7" t="n">
         <v>0.03007139999999986</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="IH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="II7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA7" t="n">
         <v>0.1732722</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="JB7" t="n">
         <v>0.0440025</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="JC7" t="n">
         <v>0.032391</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="JD7" t="n">
         <v>0.0591888</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="JE7" t="n">
         <v>0.0102807</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="JF7" t="n">
         <v>0.0353694</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="JG7" t="n">
         <v>0.0626019</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="JH7" t="n">
         <v>0.153966</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="JI7" t="n">
         <v>0.0183501</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="JJ7" t="n">
         <v>0.04757069999999999</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="JK7" t="n">
         <v>0.09606150000000001</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="JL7" t="n">
         <v>0.05170019999999999</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="JM7" t="n">
         <v>0.017115</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="JN7" t="n">
         <v>0.0285492</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="JO7" t="n">
         <v>0.0707691</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="JP7" t="n">
         <v>0.101061</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="JQ7" t="n">
         <v>0.065439</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="JR7" t="n">
         <v>0.0069957</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="JS7" t="n">
         <v>0.0187089</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="JT7" t="n">
         <v>0.08255040000000001</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="JU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM7" t="n">
         <v>0.000153</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="KN7" t="n">
         <v>0.04048349999999999</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
